--- a/TagSeq/RAnalysis/DESeq2/DESeq2_summary_table.xlsx
+++ b/TagSeq/RAnalysis/DESeq2/DESeq2_summary_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samjg\Documents\My_Projects\Pgenerosa_TagSeq_Metabolomics\TagSeq\RAnalysis\DESeq2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0815995D-065D-44EC-90C8-64F41D495391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0442F91D-8870-497B-9893-697F298693AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{42C05221-712C-4A9A-8C78-533F9C547ABA}"/>
   </bookViews>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027CECDC-17CC-4361-8D29-A876CFBEEF7A}">
   <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
